--- a/uploads/220123A MBOM.xlsx
+++ b/uploads/220123A MBOM.xlsx
@@ -1422,7 +1422,7 @@
       <c r="Q19" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatColumns="0" formatRows="0" algorithmName="SHA-512" hashValue="SLwoKLWYr/87tyxImP8D1TkqsBobKQD2p88ZGjRbxrDAq2irKtA7rJhQI8Tht7GBxDJWi52rwkJL/4lfcKtBBA==" saltValue="SXgQy0PSn5wRun90f5PkEQ==" spinCount="100000"/>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" algorithmName="SHA-512" hashValue="LyRISijpSagW9jfWIe1JolavFPiqeGrASSSt3d5ml4pVDgnoq0RcMB+Db5HQW+5M5DlCN8UP9YkPvCU8I9lcLw==" saltValue="Ijd9+ffl47vu98c2kiMeGw==" spinCount="100000"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
